--- a/biology/Zoologie/Cravaté_anatolien/Cravaté_anatolien.xlsx
+++ b/biology/Zoologie/Cravaté_anatolien/Cravaté_anatolien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cravat%C3%A9_anatolien</t>
+          <t>Cravaté_anatolien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cravaté anatolien (Anatolisches Mövchen en allemand ; anatolische meeuw en flamand[1]) est une race de pigeon domestique sélectionné en Allemagne. Elle est classée dans la catégorie des pigeons cravatés[2],[3].
+Le cravaté anatolien (Anatolisches Mövchen en allemand ; anatolische meeuw en flamand) est une race de pigeon domestique sélectionné en Allemagne. Elle est classée dans la catégorie des pigeons cravatés,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cravat%C3%A9_anatolien</t>
+          <t>Cravaté_anatolien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cravaté anatolien est apparu en Allemagne dans la première moitié du XVIIIe siècle à partir de sujets importés d'Asie mineure (Anatolie). Il est à l'origine de différentes races de cravatés sélectionnées par la suite dans toute l'Europe[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cravaté anatolien est apparu en Allemagne dans la première moitié du XVIIIe siècle à partir de sujets importés d'Asie mineure (Anatolie). Il est à l'origine de différentes races de cravatés sélectionnées par la suite dans toute l'Europe.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cravat%C3%A9_anatolien</t>
+          <t>Cravaté_anatolien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cravaté anatolien est un petit pigeon court et large, à l'aspect élégant qui se caractérise par un bec extrêmement petit, une tête ronde et un port élevé. Son plumage est toujours blanc sur l'ensemble du corps ; s'il est coloré les ailes et la queue sont alors en différents coloris : noir, jaune, rouge, bleu barré noir, bleu écaillé...Son jabot (ou cravate) de plumes  blanches descend verticalement sur la gorge. Ses tarses sont glabres et ses pattes rouges.
 </t>
